--- a/hardware/IMU_Selection/key_parameters.xlsx
+++ b/hardware/IMU_Selection/key_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\soft-arm\hardware\IMU_Selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74844C78-AB2B-433D-AD4C-4815B5E36A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD7187E-34E9-4C16-9F7D-9C5E70BBD805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7C3AB40B-8B4E-4912-A067-1016B6EA91B3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>IMU Selection</t>
   </si>
@@ -193,13 +193,22 @@
   </si>
   <si>
     <t>I2C: 400kHz</t>
+  </si>
+  <si>
+    <t>150 (190)</t>
+  </si>
+  <si>
+    <t>Noise (μg/sqrt(Hz))</t>
+  </si>
+  <si>
+    <t>Noise (dps/sqrt(Hz))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +238,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -285,11 +301,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -323,6 +336,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -639,369 +658,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FA405B-8186-4060-A222-0F3E7D06324D}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="11.21875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="28.8">
       <c r="A4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="28.8">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="28.8">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="28.8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="43.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="43.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" s="14" customFormat="1" ht="28.8">
-      <c r="A11" s="11" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" s="13" customFormat="1" ht="28.8">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="57.6">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="43.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="9" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="28.8">
+      <c r="A14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="10">
+        <v>400</v>
+      </c>
+      <c r="D14" s="10">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" ht="28.8">
-      <c r="A15" s="9" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="28.8">
+      <c r="A16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" ht="28.8">
-      <c r="A16" s="9" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="28.8">
+      <c r="A17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" ht="43.2">
-      <c r="A17" s="9" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="43.2">
+      <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="43.2">
-      <c r="A18" s="9" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="43.2">
+      <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" s="14" customFormat="1" ht="28.8">
-      <c r="A19" s="15" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" s="13" customFormat="1" ht="28.8">
+      <c r="A20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" ht="43.2">
-      <c r="A20" s="9" t="s">
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" ht="43.2">
+      <c r="A21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" ht="43.2">
-      <c r="A21" s="9" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="43.2">
+      <c r="A22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B22" s="8">
         <v>0.1</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="28.8">
+      <c r="A23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="14">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C23" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1009,5 +1060,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>